--- a/PVLT/2020 -2021 PVLT SAPM Coefficients .xlsx
+++ b/PVLT/2020 -2021 PVLT SAPM Coefficients .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmdevil\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDD25B0-73F9-4187-A706-0322861CCBE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACD0494-27D6-47A1-8B64-ABD4A468B63F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="900" windowWidth="13545" windowHeight="13770" xr2:uid="{E2150267-E172-40BA-8B6E-165830CEBAD7}"/>
+    <workbookView xWindow="1545" yWindow="1065" windowWidth="13545" windowHeight="13770" xr2:uid="{E2150267-E172-40BA-8B6E-165830CEBAD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -997,7 +997,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1234,9 +1234,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1244,6 +1241,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1563,8 +1572,8 @@
   <dimension ref="A1:BE132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AJ2" sqref="AJ2"/>
+      <pane xSplit="3" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1604,7 +1613,7 @@
       <c r="N1" s="78"/>
       <c r="O1" s="78"/>
       <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
+      <c r="Q1" s="83"/>
       <c r="S1" s="9" t="s">
         <v>59</v>
       </c>
@@ -1695,7 +1704,7 @@
       <c r="P2" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="Q2" s="84" t="s">
         <v>35</v>
       </c>
       <c r="R2" s="5"/>
@@ -1825,19 +1834,19 @@
       <c r="K3" s="37">
         <v>60</v>
       </c>
-      <c r="M3" s="81">
+      <c r="M3" s="80">
         <v>4.6459162474106086E-2</v>
       </c>
-      <c r="N3" s="81">
+      <c r="N3" s="80">
         <v>-0.29360347771198592</v>
       </c>
-      <c r="O3" s="81">
+      <c r="O3" s="80">
         <v>-1.4896948184424072E-2</v>
       </c>
-      <c r="P3" s="81">
+      <c r="P3" s="80">
         <v>-0.38167227832630962</v>
       </c>
-      <c r="Q3" s="81">
+      <c r="Q3" s="39">
         <v>-0.39656922651073367</v>
       </c>
       <c r="S3" s="39">
@@ -1966,19 +1975,19 @@
       <c r="K4" s="7">
         <v>60</v>
       </c>
-      <c r="M4" s="82">
+      <c r="M4" s="81">
         <v>6.184902041211246E-2</v>
       </c>
-      <c r="N4" s="82">
+      <c r="N4" s="81">
         <v>-0.30160216000776829</v>
       </c>
-      <c r="O4" s="82">
+      <c r="O4" s="81">
         <v>5.0825138072325251E-3</v>
       </c>
-      <c r="P4" s="82">
+      <c r="P4" s="81">
         <v>-0.39332490766693001</v>
       </c>
-      <c r="Q4" s="82">
+      <c r="Q4" s="85">
         <v>-0.3882423938596975</v>
       </c>
       <c r="S4" s="10">
@@ -2113,19 +2122,19 @@
       <c r="K5" s="37">
         <v>60</v>
       </c>
-      <c r="M5" s="81">
+      <c r="M5" s="80">
         <v>5.8044155743805712E-2</v>
       </c>
-      <c r="N5" s="81">
+      <c r="N5" s="80">
         <v>-0.30308159604707646</v>
       </c>
-      <c r="O5" s="81">
+      <c r="O5" s="80">
         <v>2.2143787062669932E-4</v>
       </c>
-      <c r="P5" s="81">
+      <c r="P5" s="80">
         <v>-0.40044999837060896</v>
       </c>
-      <c r="Q5" s="81">
+      <c r="Q5" s="39">
         <v>-0.40022856049998223</v>
       </c>
       <c r="S5" s="39">
@@ -2236,19 +2245,19 @@
       <c r="K6" s="7">
         <v>60</v>
       </c>
-      <c r="M6" s="82">
+      <c r="M6" s="81">
         <v>3.3652434251521771E-2</v>
       </c>
-      <c r="N6" s="82">
+      <c r="N6" s="81">
         <v>-0.31903691980541143</v>
       </c>
-      <c r="O6" s="82">
+      <c r="O6" s="81">
         <v>8.8181475960899718</v>
       </c>
-      <c r="P6" s="82">
+      <c r="P6" s="81">
         <v>-0.41283266381998057</v>
       </c>
-      <c r="Q6" s="82">
+      <c r="Q6" s="85">
         <v>-0.44270544978918697</v>
       </c>
       <c r="S6" s="10">
@@ -2380,19 +2389,19 @@
       <c r="K7" s="45">
         <v>72</v>
       </c>
-      <c r="M7" s="81">
+      <c r="M7" s="80">
         <v>7.6636578019148388E-2</v>
       </c>
-      <c r="N7" s="81">
+      <c r="N7" s="80">
         <v>-0.28781991192159401</v>
       </c>
-      <c r="O7" s="81">
+      <c r="O7" s="80">
         <v>2.6446570317925404E-2</v>
       </c>
-      <c r="P7" s="81">
+      <c r="P7" s="80">
         <v>-0.37650464988825749</v>
       </c>
-      <c r="Q7" s="81">
+      <c r="Q7" s="47">
         <v>-0.35005807957033208</v>
       </c>
       <c r="S7" s="47">
@@ -2521,19 +2530,19 @@
       <c r="K8" s="53">
         <v>60</v>
       </c>
-      <c r="M8" s="81">
+      <c r="M8" s="80">
         <v>4.562238772514484E-2</v>
       </c>
-      <c r="N8" s="81">
+      <c r="N8" s="80">
         <v>-0.31136192388437717</v>
       </c>
-      <c r="O8" s="81">
+      <c r="O8" s="80">
         <v>-2.276772324864253E-2</v>
       </c>
-      <c r="P8" s="81">
+      <c r="P8" s="80">
         <v>-0.4091606140546804</v>
       </c>
-      <c r="Q8" s="81">
+      <c r="Q8" s="55">
         <v>-0.43192833730332292</v>
       </c>
       <c r="S8" s="55">
@@ -2662,19 +2671,19 @@
       <c r="K9" s="7">
         <v>60</v>
       </c>
-      <c r="M9" s="82">
+      <c r="M9" s="81">
         <v>2.6019650079804894E-2</v>
       </c>
-      <c r="N9" s="82">
+      <c r="N9" s="81">
         <v>-0.31796883610617654</v>
       </c>
-      <c r="O9" s="82">
+      <c r="O9" s="81">
         <v>-3.5373634797900795E-2</v>
       </c>
-      <c r="P9" s="82">
+      <c r="P9" s="81">
         <v>-0.4187637440903364</v>
       </c>
-      <c r="Q9" s="82">
+      <c r="Q9" s="85">
         <v>-0.45413737888823724</v>
       </c>
       <c r="S9" s="10">
@@ -2809,19 +2818,19 @@
       <c r="K10" s="22">
         <v>60</v>
       </c>
-      <c r="M10" s="81">
+      <c r="M10" s="80">
         <v>7.0647528474723609E-2</v>
       </c>
-      <c r="N10" s="81">
+      <c r="N10" s="80">
         <v>-0.27845044466897872</v>
       </c>
-      <c r="O10" s="81">
+      <c r="O10" s="80">
         <v>3.2279918920421764E-2</v>
       </c>
-      <c r="P10" s="81">
+      <c r="P10" s="80">
         <v>-0.36509468195749351</v>
       </c>
-      <c r="Q10" s="81">
+      <c r="Q10" s="24">
         <v>-0.33281476303707175</v>
       </c>
       <c r="S10" s="24">
@@ -2932,19 +2941,19 @@
       <c r="K11" s="7">
         <v>60</v>
       </c>
-      <c r="M11" s="82">
+      <c r="M11" s="81">
         <v>8.0723156490309311E-2</v>
       </c>
-      <c r="N11" s="82">
+      <c r="N11" s="81">
         <v>-0.28273114573025387</v>
       </c>
-      <c r="O11" s="82">
+      <c r="O11" s="81">
         <v>3.4638323094824786E-2</v>
       </c>
-      <c r="P11" s="82">
+      <c r="P11" s="81">
         <v>-0.37249133523815198</v>
       </c>
-      <c r="Q11" s="82">
+      <c r="Q11" s="85">
         <v>-0.33785301214332719</v>
       </c>
       <c r="S11" s="10">
@@ -3076,19 +3085,19 @@
       <c r="K12" s="69">
         <v>60</v>
       </c>
-      <c r="M12" s="81">
+      <c r="M12" s="80">
         <v>8.0862214814061251E-2</v>
       </c>
-      <c r="N12" s="81">
+      <c r="N12" s="80">
         <v>-0.27932893080156673</v>
       </c>
-      <c r="O12" s="81">
+      <c r="O12" s="80">
         <v>2.7009089516226652E-2</v>
       </c>
-      <c r="P12" s="81">
+      <c r="P12" s="80">
         <v>-0.37930238759180912</v>
       </c>
-      <c r="Q12" s="81">
+      <c r="Q12" s="71">
         <v>-0.35229329807558246</v>
       </c>
       <c r="S12" s="71">
@@ -3217,19 +3226,19 @@
       <c r="K13" s="7">
         <v>60</v>
       </c>
-      <c r="M13" s="82">
+      <c r="M13" s="81">
         <v>7.8602728952022749E-2</v>
       </c>
-      <c r="N13" s="82">
+      <c r="N13" s="81">
         <v>-0.28180867254496117</v>
       </c>
-      <c r="O13" s="82">
+      <c r="O13" s="81">
         <v>2.4428966689224594E-2</v>
       </c>
-      <c r="P13" s="82">
+      <c r="P13" s="81">
         <v>-0.38105787017714654</v>
       </c>
-      <c r="Q13" s="82">
+      <c r="Q13" s="85">
         <v>-0.35662890348792198</v>
       </c>
       <c r="S13" s="10">
@@ -3358,19 +3367,19 @@
       <c r="K14" s="29">
         <v>96</v>
       </c>
-      <c r="M14" s="81">
+      <c r="M14" s="80">
         <v>7.1071749431029951E-2</v>
       </c>
-      <c r="N14" s="81">
+      <c r="N14" s="80">
         <v>-0.2463560440444498</v>
       </c>
-      <c r="O14" s="81">
+      <c r="O14" s="80">
         <v>3.835859652739957E-2</v>
       </c>
-      <c r="P14" s="81">
+      <c r="P14" s="80">
         <v>-0.29276843780154332</v>
       </c>
-      <c r="Q14" s="81">
+      <c r="Q14" s="31">
         <v>-0.25440984127414373</v>
       </c>
       <c r="S14" s="31">
@@ -3505,19 +3514,19 @@
       <c r="K15" s="7">
         <v>96</v>
       </c>
-      <c r="M15" s="82">
+      <c r="M15" s="81">
         <v>7.8529452290447527E-2</v>
       </c>
-      <c r="N15" s="82">
+      <c r="N15" s="81">
         <v>-0.23960845683717796</v>
       </c>
-      <c r="O15" s="82">
+      <c r="O15" s="81">
         <v>3.8040084013974185E-2</v>
       </c>
-      <c r="P15" s="82">
+      <c r="P15" s="81">
         <v>-0.28660857564889175</v>
       </c>
-      <c r="Q15" s="82">
+      <c r="Q15" s="85">
         <v>-0.24856849163491759</v>
       </c>
       <c r="S15" s="10">
@@ -3628,19 +3637,19 @@
       <c r="K16" s="61">
         <v>60</v>
       </c>
-      <c r="M16" s="81">
+      <c r="M16" s="80">
         <v>9.3570638322362953E-2</v>
       </c>
-      <c r="N16" s="81">
+      <c r="N16" s="80">
         <v>-0.28585560285386391</v>
       </c>
-      <c r="O16" s="81">
+      <c r="O16" s="80">
         <v>3.6043291953508694E-2</v>
       </c>
-      <c r="P16" s="81">
+      <c r="P16" s="80">
         <v>-0.38128491822515687</v>
       </c>
-      <c r="Q16" s="81">
+      <c r="Q16" s="63">
         <v>-0.34524162627164817</v>
       </c>
       <c r="S16" s="63">
@@ -3772,19 +3781,19 @@
       <c r="K17" s="7">
         <v>60</v>
       </c>
-      <c r="M17" s="82">
+      <c r="M17" s="81">
         <v>8.7502427875565392E-2</v>
       </c>
-      <c r="N17" s="82">
+      <c r="N17" s="81">
         <v>-0.28324114520078336</v>
       </c>
-      <c r="O17" s="82">
+      <c r="O17" s="81">
         <v>3.6300072841770031E-2</v>
       </c>
-      <c r="P17" s="82">
+      <c r="P17" s="81">
         <v>-0.38070133527429439</v>
       </c>
-      <c r="Q17" s="82">
+      <c r="Q17" s="85">
         <v>-0.34440126243252434</v>
       </c>
       <c r="S17" s="10">
@@ -3913,19 +3922,19 @@
       <c r="K18" s="61">
         <v>60</v>
       </c>
-      <c r="M18" s="81">
+      <c r="M18" s="80">
         <v>7.9468671929132345E-2</v>
       </c>
-      <c r="N18" s="81">
+      <c r="N18" s="80">
         <v>-0.27668705230989599</v>
       </c>
-      <c r="O18" s="81">
+      <c r="O18" s="80">
         <v>3.1553788883992864E-2</v>
       </c>
-      <c r="P18" s="81">
+      <c r="P18" s="80">
         <v>-0.37544335030385478</v>
       </c>
-      <c r="Q18" s="81">
+      <c r="Q18" s="63">
         <v>-0.34388956141986193</v>
       </c>
       <c r="S18" s="63">
@@ -4054,19 +4063,19 @@
       <c r="K19" s="7">
         <v>60</v>
       </c>
-      <c r="M19" s="82">
+      <c r="M19" s="81">
         <v>8.5911788684659124E-2</v>
       </c>
-      <c r="N19" s="82">
+      <c r="N19" s="81">
         <v>-0.28114156778464511</v>
       </c>
-      <c r="O19" s="82">
+      <c r="O19" s="81">
         <v>3.3154103988508862E-2</v>
       </c>
-      <c r="P19" s="82">
+      <c r="P19" s="81">
         <v>-0.38032334172471649</v>
       </c>
-      <c r="Q19" s="82">
+      <c r="Q19" s="85">
         <v>-0.34716923773620761</v>
       </c>
       <c r="S19" s="10">
@@ -4201,19 +4210,19 @@
       <c r="K20" s="7">
         <v>60</v>
       </c>
-      <c r="M20" s="82">
+      <c r="M20" s="81">
         <v>4.9580604389291058E-2</v>
       </c>
-      <c r="N20" s="83">
+      <c r="N20" s="82">
         <v>-0.33735571878279119</v>
       </c>
-      <c r="O20" s="83">
+      <c r="O20" s="82">
         <v>4.9825610363726951E-2</v>
       </c>
-      <c r="P20" s="83">
+      <c r="P20" s="82">
         <v>-0.39993334444259293</v>
       </c>
-      <c r="Q20" s="83">
+      <c r="Q20" s="86">
         <v>-0.35009133178346069</v>
       </c>
       <c r="S20" s="10">
@@ -4324,19 +4333,19 @@
       <c r="K21" s="7">
         <v>60</v>
       </c>
-      <c r="M21" s="82">
+      <c r="M21" s="81">
         <v>4.9518016984163415E-2</v>
       </c>
-      <c r="N21" s="82">
+      <c r="N21" s="81">
         <v>-0.33593688775110364</v>
       </c>
-      <c r="O21" s="82">
+      <c r="O21" s="81">
         <v>5.0087653393438521E-2</v>
       </c>
-      <c r="P21" s="82">
+      <c r="P21" s="81">
         <v>-0.40029354860230831</v>
       </c>
-      <c r="Q21" s="82">
+      <c r="Q21" s="85">
         <v>-0.35019422747587819</v>
       </c>
       <c r="S21" s="7">
@@ -4450,11 +4459,11 @@
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
       <c r="K22" s="7"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="82"/>
-      <c r="Q22" s="82"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="85"/>
       <c r="S22" s="10"/>
       <c r="T22" s="10"/>
       <c r="U22" s="10"/>
@@ -4537,19 +4546,19 @@
       <c r="K23" s="7">
         <v>60</v>
       </c>
-      <c r="M23" s="82">
+      <c r="M23" s="81">
         <v>8.5064670608285209E-2</v>
       </c>
-      <c r="N23" s="82">
+      <c r="N23" s="81">
         <v>-0.30610062696173784</v>
       </c>
-      <c r="O23" s="82">
+      <c r="O23" s="81">
         <v>3.3574652651511556E-2</v>
       </c>
-      <c r="P23" s="82">
+      <c r="P23" s="81">
         <v>-0.40003890398632913</v>
       </c>
-      <c r="Q23" s="82">
+      <c r="Q23" s="85">
         <v>-0.36646425133481753</v>
       </c>
       <c r="S23" s="10">
@@ -4647,6 +4656,7 @@
       <c r="C24" s="12" t="s">
         <v>72</v>
       </c>
+      <c r="Q24" s="83"/>
       <c r="AE24" s="16"/>
       <c r="AF24" s="16"/>
       <c r="AX24" s="18">
